--- a/notebooks/scripts/connect_edges_sub_to_tram_oneway0617.xlsx
+++ b/notebooks/scripts/connect_edges_sub_to_tram_oneway0617.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,538 +987,6 @@
         <v>1.16254037393536</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2101</v>
-      </c>
-      <c r="B40" t="n">
-        <v>819</v>
-      </c>
-      <c r="C40" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2515</v>
-      </c>
-      <c r="B41" t="n">
-        <v>835</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2178</v>
-      </c>
-      <c r="B42" t="n">
-        <v>731</v>
-      </c>
-      <c r="C42" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2178</v>
-      </c>
-      <c r="B43" t="n">
-        <v>816</v>
-      </c>
-      <c r="C43" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2180</v>
-      </c>
-      <c r="B44" t="n">
-        <v>816</v>
-      </c>
-      <c r="C44" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1544</v>
-      </c>
-      <c r="B45" t="n">
-        <v>816</v>
-      </c>
-      <c r="C45" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2173</v>
-      </c>
-      <c r="B46" t="n">
-        <v>816</v>
-      </c>
-      <c r="C46" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2177</v>
-      </c>
-      <c r="B47" t="n">
-        <v>816</v>
-      </c>
-      <c r="C47" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B48" t="n">
-        <v>816</v>
-      </c>
-      <c r="C48" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B49" t="n">
-        <v>731</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1658</v>
-      </c>
-      <c r="B50" t="n">
-        <v>731</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1359</v>
-      </c>
-      <c r="B51" t="n">
-        <v>731</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1359</v>
-      </c>
-      <c r="B52" t="n">
-        <v>816</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1658</v>
-      </c>
-      <c r="B53" t="n">
-        <v>816</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1544</v>
-      </c>
-      <c r="B54" t="n">
-        <v>731</v>
-      </c>
-      <c r="C54" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2173</v>
-      </c>
-      <c r="B55" t="n">
-        <v>731</v>
-      </c>
-      <c r="C55" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2177</v>
-      </c>
-      <c r="B56" t="n">
-        <v>731</v>
-      </c>
-      <c r="C56" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2180</v>
-      </c>
-      <c r="B57" t="n">
-        <v>731</v>
-      </c>
-      <c r="C57" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2636</v>
-      </c>
-      <c r="B58" t="n">
-        <v>863</v>
-      </c>
-      <c r="C58" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2722</v>
-      </c>
-      <c r="B59" t="n">
-        <v>863</v>
-      </c>
-      <c r="C59" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2529</v>
-      </c>
-      <c r="B60" t="n">
-        <v>844</v>
-      </c>
-      <c r="C60" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2628</v>
-      </c>
-      <c r="B61" t="n">
-        <v>860</v>
-      </c>
-      <c r="C61" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2627</v>
-      </c>
-      <c r="B62" t="n">
-        <v>860</v>
-      </c>
-      <c r="C62" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2551</v>
-      </c>
-      <c r="B63" t="n">
-        <v>19</v>
-      </c>
-      <c r="C63" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2687</v>
-      </c>
-      <c r="B64" t="n">
-        <v>846</v>
-      </c>
-      <c r="C64" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2654</v>
-      </c>
-      <c r="B65" t="n">
-        <v>843</v>
-      </c>
-      <c r="C65" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B66" t="n">
-        <v>813</v>
-      </c>
-      <c r="C66" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>2584</v>
-      </c>
-      <c r="B67" t="n">
-        <v>813</v>
-      </c>
-      <c r="C67" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1663</v>
-      </c>
-      <c r="B68" t="n">
-        <v>857</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>2629</v>
-      </c>
-      <c r="B69" t="n">
-        <v>857</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1502</v>
-      </c>
-      <c r="B70" t="n">
-        <v>121</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>2467</v>
-      </c>
-      <c r="B71" t="n">
-        <v>861</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>2742</v>
-      </c>
-      <c r="B72" t="n">
-        <v>861</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>2386</v>
-      </c>
-      <c r="B73" t="n">
-        <v>861</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>2586</v>
-      </c>
-      <c r="B74" t="n">
-        <v>459</v>
-      </c>
-      <c r="C74" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2449</v>
-      </c>
-      <c r="B75" t="n">
-        <v>460</v>
-      </c>
-      <c r="C75" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2448</v>
-      </c>
-      <c r="B76" t="n">
-        <v>460</v>
-      </c>
-      <c r="C76" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>2300</v>
-      </c>
-      <c r="B77" t="n">
-        <v>840</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10000002763</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.16254037393536</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
